--- a/엑셀설명자료/12_gaussian naive bayes.xlsx
+++ b/엑셀설명자료/12_gaussian naive bayes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aSSIST\spreadsheet (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aSSIST\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A9715-A4CD-4C02-B669-3C6231B8EE22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Gaussian Naïve Bayes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +154,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>)|Y=</t>
     </r>
@@ -170,6 +172,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -193,6 +196,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>)|Y=</t>
     </r>
@@ -210,6 +214,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -373,27 +378,13 @@
   </si>
   <si>
     <t xml:space="preserve">https://en.wikipedia.org/wiki/Naive_Bayes_classifier </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>emale</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -403,10 +394,12 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -446,7 +439,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,10 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -880,36 +863,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="15.75" customWidth="1"/>
+    <col min="6" max="7" width="15.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -923,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -937,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -951,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.92</v>
       </c>
@@ -965,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5.58</v>
       </c>
@@ -979,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.92</v>
       </c>
@@ -993,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1007,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.5</v>
       </c>
@@ -1021,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.42</v>
       </c>
@@ -1035,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5.75</v>
       </c>
@@ -1049,14 +1032,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14">
         <v>130</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1069,12 +1052,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>COUNT(D10:D13)/COUNT(D6:D13)</f>
         <v>0.5</v>
@@ -1092,12 +1075,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="12" t="s">
         <v>9</v>
@@ -1118,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1130,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1176,16 +1159,16 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
@@ -1208,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1235,7 +1218,7 @@
         <v>1.8685962484475708E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.92</v>
       </c>
@@ -1262,7 +1245,7 @@
         <v>1.2569537378559033E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5.58</v>
       </c>
@@ -1289,7 +1272,7 @@
         <v>1.9996065590267218E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5.92</v>
       </c>
@@ -1316,7 +1299,7 @@
         <v>5.7032227252145137E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1343,7 +1326,7 @@
         <v>2.8309327493173113E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.5</v>
       </c>
@@ -1370,7 +1353,7 @@
         <v>2.3894588284358476E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.42</v>
       </c>
@@ -1397,7 +1380,7 @@
         <v>3.2371524001788862E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5.75</v>
       </c>
@@ -1424,40 +1407,19 @@
         <v>7.6913461296855437E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>6</v>
-      </c>
-      <c r="B37" s="20">
-        <v>130</v>
-      </c>
-      <c r="C37" s="20">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" ref="D37" si="4">(1/($B$24*SQRT(2*PI())))*EXP(-((A37-$B$23)^2)/(2*$B$24))</f>
-        <v>0.71665204441935459</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" ref="E37" si="5">(1/($D$24*SQRT(2*PI())))*EXP(-((B37-$D$23)^2)/(2*$D$24))</f>
-        <v>7.1053545959945267E-4</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" ref="F37" si="6">(1/($F$24*SQRT(2*PI())))*EXP(-((C37-$F$23)^2)/(2*$F$24))</f>
-        <v>0.22206966123809296</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" ref="G37" si="7">D37*E37*F37*$A$19</f>
-        <v>5.6539678546964427E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -1480,7 +1442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1507,7 +1469,7 @@
         <v>2.6140239971062205E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.92</v>
       </c>
@@ -1518,23 +1480,23 @@
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" ref="D42:D48" si="8">(1/($C$24*SQRT(2*PI())))*EXP(-((A42-$C$23)^2)/(2*$C$24))</f>
+        <f t="shared" ref="D42:D48" si="4">(1/($C$24*SQRT(2*PI())))*EXP(-((A42-$C$23)^2)/(2*$C$24))</f>
         <v>10.721135161903485</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:E48" si="9">(1/($E$24*SQRT(2*PI())))*EXP(-((B42-$E$23)^2)/(2*$E$24))</f>
+        <f t="shared" ref="E42:E48" si="5">(1/($E$24*SQRT(2*PI())))*EXP(-((B42-$E$23)^2)/(2*$E$24))</f>
         <v>1.5041716231905214E-3</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" ref="F42:F48" si="10">(1/($G$24*SQRT(2*PI())))*EXP(-((C42-$G$23)^2)/(2*$G$24))</f>
+        <f t="shared" ref="F42:F48" si="6">(1/($G$24*SQRT(2*PI())))*EXP(-((C42-$G$23)^2)/(2*$G$24))</f>
         <v>0.23491908178341733</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" ref="G42:G48" si="11">D42*E42*F42*$B$19</f>
+        <f t="shared" ref="G42:G48" si="7">D42*E42*F42*$B$19</f>
         <v>1.8942027444060971E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.58</v>
       </c>
@@ -1545,23 +1507,23 @@
         <v>12</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.8697408705541827</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2.7687939318154177E-3</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.20219672750543777</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1.0832199389568479E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.92</v>
       </c>
@@ -1572,23 +1534,23 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>10.721135161903485</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1.9395958338753888E-3</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.14979101989824459</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1.5574273460515571E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1599,23 +1561,23 @@
         <v>6</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.3520741312433391E-4</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1.7380039992733754E-13</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6.1374620389368118E-5</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1.7878176038269786E-21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.5</v>
       </c>
@@ -1626,23 +1588,23 @@
         <v>8</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.8848959268066054</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1.9678254844366684E-4</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1.0066782296071591E-2</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1.8669583852600192E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.42</v>
       </c>
@@ -1653,23 +1615,23 @@
         <v>7</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.76481179967559987</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.3998939383284247E-7</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1.0610310478390494E-3</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2.1909774421222108E-10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.75</v>
       </c>
@@ -1680,58 +1642,37 @@
         <v>9</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.7295399535477323</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1.9678254844366684E-4</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>5.2417532340256E-2</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5.0179399823257037E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="20">
-        <v>6</v>
-      </c>
-      <c r="B49" s="20">
-        <v>130</v>
-      </c>
-      <c r="C49" s="20">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" ref="D49" si="12">(1/($C$24*SQRT(2*PI())))*EXP(-((A49-$C$23)^2)/(2*$C$24))</f>
-        <v>8.4354696735027108</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" ref="E49" si="13">(1/($E$24*SQRT(2*PI())))*EXP(-((B49-$E$23)^2)/(2*$E$24))</f>
-        <v>5.3998939383284247E-7</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" ref="F49" si="14">(1/($G$24*SQRT(2*PI())))*EXP(-((C49-$G$23)^2)/(2*$G$24))</f>
-        <v>1.0066782296071591E-2</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" ref="G49" si="15">D49*E49*F49*$B$19</f>
-        <v>2.2927419599985464E-8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1762,11 +1703,11 @@
         <v>12</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D53:D60" si="16">G29</f>
+        <f t="shared" ref="D53:D60" si="8">G29</f>
         <v>1.8685962484475708E-8</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" ref="E53:E60" si="17">G41</f>
+        <f t="shared" ref="E53:E60" si="9">G41</f>
         <v>2.6140239971062205E-3</v>
       </c>
       <c r="F53" s="2">
@@ -1774,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.92</v>
       </c>
@@ -1785,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1.2569537378559033E-7</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>1.8942027444060971E-3</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" ref="F54:F60" si="18">IF(D54&gt;E54,0,1)</f>
+        <f t="shared" ref="F54:F60" si="10">IF(D54&gt;E54,0,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.58</v>
       </c>
@@ -1808,19 +1749,19 @@
         <v>12</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1.9996065590267218E-7</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>1.0832199389568479E-3</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.92</v>
       </c>
@@ -1831,19 +1772,19 @@
         <v>10</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>5.7032227252145137E-6</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>1.5574273460515571E-3</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1854,19 +1795,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2.8309327493173113E-5</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>1.7878176038269786E-21</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.5</v>
       </c>
@@ -1877,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2.3894588284358476E-4</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>1.8669583852600192E-6</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.42</v>
       </c>
@@ -1900,19 +1841,19 @@
         <v>7</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>3.2371524001788862E-4</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.1909774421222108E-10</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.75</v>
       </c>
@@ -1923,50 +1864,28 @@
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>7.6913461296855437E-5</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>5.0179399823257037E-5</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="20">
-        <v>6</v>
-      </c>
-      <c r="B61" s="20">
-        <v>130</v>
-      </c>
-      <c r="C61" s="20">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" ref="D61" si="19">G37</f>
-        <v>5.6539678546964427E-5</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" ref="E61" si="20">G49</f>
-        <v>2.2927419599985464E-8</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" ref="F61" si="21">IF(D61&gt;E61,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>38</v>
-      </c>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>